--- a/dados/CAV OUTROS.xlsx
+++ b/dados/CAV OUTROS.xlsx
@@ -97,10 +97,10 @@
     <t>485699</t>
   </si>
   <si>
-    <t>09/07/2025 06:00</t>
-  </si>
-  <si>
-    <t>10/07/2025 06:00</t>
+    <t>14/07/2025 06:00</t>
+  </si>
+  <si>
+    <t>15/07/2025 06:00</t>
   </si>
   <si>
     <t>6126</t>
@@ -682,46 +682,46 @@
         <v>29</v>
       </c>
       <c r="I2">
-        <v>20.5</v>
+        <v>14</v>
       </c>
       <c r="J2">
-        <v>8559.85</v>
+        <v>8640.9</v>
       </c>
       <c r="K2">
-        <v>56.88092138888887</v>
+        <v>47.172780555555555</v>
       </c>
       <c r="L2">
-        <v>243.72188444444453</v>
+        <v>143.31858222222223</v>
       </c>
       <c r="M2">
-        <v>4.147515555555556</v>
+        <v>0.31454305555555556</v>
       </c>
       <c r="N2">
-        <v>6.81771547118146</v>
+        <v>6.329743471888155</v>
       </c>
       <c r="O2">
-        <v>19.508742550594597</v>
+        <v>20.096036440258775</v>
       </c>
       <c r="P2">
-        <v>31.548538282078475</v>
+        <v>35.266</v>
       </c>
       <c r="Q2">
-        <v>304.7503216666667</v>
+        <v>190.8059072222222</v>
       </c>
       <c r="R2">
-        <v>1005.5268828519677</v>
+        <v>629.5660922345413</v>
       </c>
       <c r="S2">
-        <v>0.38</v>
+        <v>0.34</v>
       </c>
       <c r="T2">
-        <v>14.54327380314493</v>
+        <v>13.103523297333458</v>
       </c>
       <c r="U2">
-        <v>47.98568445723981</v>
+        <v>43.23521256183475</v>
       </c>
       <c r="V2">
-        <v>0.2775642709354606</v>
+        <v>0.26527062450343325</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -779,7 +779,7 @@
         <v>29</v>
       </c>
       <c r="J4">
-        <v>8252.2</v>
+        <v>8254.45</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -866,46 +866,46 @@
         <v>29</v>
       </c>
       <c r="I7">
-        <v>19.399999999999636</v>
+        <v>10.649999999999636</v>
       </c>
       <c r="J7">
-        <v>8815.15</v>
+        <v>8891</v>
       </c>
       <c r="K7">
-        <v>54.87318361111113</v>
+        <v>22.32755166666667</v>
       </c>
       <c r="L7">
-        <v>194.76142638888885</v>
+        <v>96.25951916666666</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.7534527777777777</v>
       </c>
       <c r="N7">
-        <v>5.901147764169754</v>
+        <v>5.7279570056632725</v>
       </c>
       <c r="O7">
-        <v>18.799210290371875</v>
+        <v>14.394394104136987</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>20.347662779397474</v>
       </c>
       <c r="Q7">
-        <v>249.63460972222225</v>
+        <v>120.34052472222223</v>
       </c>
       <c r="R7">
-        <v>823.6720131849802</v>
+        <v>397.064823567475</v>
       </c>
       <c r="S7">
-        <v>0.38799999999999996</v>
+        <v>0.64</v>
       </c>
       <c r="T7">
-        <v>12.710045933915065</v>
+        <v>11.317118837813531</v>
       </c>
       <c r="U7">
-        <v>41.9369298740689</v>
+        <v>37.340952310130476</v>
       </c>
       <c r="V7">
-        <v>0.2867037133086606</v>
+        <v>0.2754658760152494</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -934,46 +934,46 @@
         <v>29</v>
       </c>
       <c r="I8">
-        <v>18.25</v>
+        <v>20.25</v>
       </c>
       <c r="J8">
-        <v>6852</v>
+        <v>6938.6</v>
       </c>
       <c r="K8">
-        <v>47.34000249999998</v>
+        <v>48.28416805555555</v>
       </c>
       <c r="L8">
-        <v>162.83522944444445</v>
+        <v>184.4372263888889</v>
       </c>
       <c r="M8">
-        <v>0.2308411111111111</v>
+        <v>15.846829722222223</v>
       </c>
       <c r="N8">
-        <v>4.976020712134338</v>
+        <v>4.697706192153328</v>
       </c>
       <c r="O8">
-        <v>17.24485005766673</v>
+        <v>18.648808259421326</v>
       </c>
       <c r="P8">
-        <v>21.67860209424084</v>
+        <v>31.132404060248856</v>
       </c>
       <c r="Q8">
-        <v>210.40607249999996</v>
+        <v>248.56822444444447</v>
       </c>
       <c r="R8">
-        <v>694.2370431538458</v>
+        <v>820.1534637756838</v>
       </c>
       <c r="S8">
-        <v>0.26</v>
+        <v>0.16</v>
       </c>
       <c r="T8">
-        <v>11.121468323268353</v>
+        <v>12.058364336364917</v>
       </c>
       <c r="U8">
-        <v>36.695401385218965</v>
+        <v>39.7866996074924</v>
       </c>
       <c r="V8">
-        <v>0.2633225171596121</v>
+        <v>0.26047755264962713</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -1002,46 +1002,46 @@
         <v>29</v>
       </c>
       <c r="I9">
-        <v>17.75</v>
+        <v>19.600000000000364</v>
       </c>
       <c r="J9">
-        <v>7667.3</v>
+        <v>7751.15</v>
       </c>
       <c r="K9">
-        <v>40.14716277777779</v>
+        <v>45.92582499999999</v>
       </c>
       <c r="L9">
-        <v>171.29546333333337</v>
+        <v>197.8471436111111</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>16.195511944444444</v>
       </c>
       <c r="N9">
-        <v>4.996643536018441</v>
+        <v>4.681169434844015</v>
       </c>
       <c r="O9">
-        <v>16.634444555342156</v>
+        <v>19.77231551493919</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>32.579031690140845</v>
       </c>
       <c r="Q9">
-        <v>211.4426269444444</v>
+        <v>259.96848388888884</v>
       </c>
       <c r="R9">
-        <v>697.6571654156645</v>
+        <v>857.7687393894508</v>
       </c>
       <c r="S9">
-        <v>0.408</v>
+        <v>0.18</v>
       </c>
       <c r="T9">
-        <v>11.571770006842812</v>
+        <v>12.851220712666365</v>
       </c>
       <c r="U9">
-        <v>38.18117651336756</v>
+        <v>42.40273753733489</v>
       </c>
       <c r="V9">
-        <v>0.24851208922251897</v>
+        <v>0.2601261926095682</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -1070,46 +1070,46 @@
         <v>29</v>
       </c>
       <c r="I10">
-        <v>15.450000000000728</v>
+        <v>14.600000000000364</v>
       </c>
       <c r="J10">
-        <v>9263.2</v>
+        <v>9340.15</v>
       </c>
       <c r="K10">
-        <v>38.61823638888888</v>
+        <v>21.80077333333333</v>
       </c>
       <c r="L10">
-        <v>157.07197166666663</v>
+        <v>134.8915322222222</v>
       </c>
       <c r="M10">
-        <v>0.5736955555555556</v>
+        <v>6.5919847222222225</v>
       </c>
       <c r="N10">
-        <v>4.853352475275583</v>
+        <v>3.9907509080481747</v>
       </c>
       <c r="O10">
-        <v>19.2339255143655</v>
+        <v>15.014758835585312</v>
       </c>
       <c r="P10">
-        <v>29.239000000000004</v>
+        <v>29.57345411352838</v>
       </c>
       <c r="Q10">
-        <v>196.2639036111111</v>
+        <v>163.2842894444444</v>
       </c>
       <c r="R10">
-        <v>647.5748085683657</v>
+        <v>538.7582257037178</v>
       </c>
       <c r="S10">
-        <v>0.608</v>
+        <v>0.5479999999999999</v>
       </c>
       <c r="T10">
-        <v>12.210266640324285</v>
+        <v>11.172662548234607</v>
       </c>
       <c r="U10">
-        <v>40.287902852702956</v>
+        <v>36.864317267469104</v>
       </c>
       <c r="V10">
-        <v>0.2667189126299705</v>
+        <v>0.2647239987289581</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -1138,46 +1138,46 @@
         <v>29</v>
       </c>
       <c r="I11">
-        <v>19.5</v>
+        <v>13.149999999999636</v>
       </c>
       <c r="J11">
-        <v>8651.45</v>
+        <v>8720.1</v>
       </c>
       <c r="K11">
-        <v>58.61356694444444</v>
+        <v>42.97993277777777</v>
       </c>
       <c r="L11">
-        <v>221.9462522222222</v>
+        <v>106.2052063888889</v>
       </c>
       <c r="M11">
-        <v>1.2732638888888892</v>
+        <v>1.641596111111111</v>
       </c>
       <c r="N11">
-        <v>6.537226418681282</v>
+        <v>5.7720673693152555</v>
       </c>
       <c r="O11">
-        <v>18.986441686289513</v>
+        <v>18.51605320040093</v>
       </c>
       <c r="P11">
-        <v>28.679822166562303</v>
+        <v>33.359700170357755</v>
       </c>
       <c r="Q11">
-        <v>281.83308027777787</v>
+        <v>150.82673833333334</v>
       </c>
       <c r="R11">
-        <v>929.9112045113859</v>
+        <v>497.65440514589784</v>
       </c>
       <c r="S11">
-        <v>0.28800000000000003</v>
+        <v>0.508</v>
       </c>
       <c r="T11">
-        <v>13.683857521068747</v>
+        <v>11.423222839710496</v>
       </c>
       <c r="U11">
-        <v>45.15003142014964</v>
+        <v>37.69104357730974</v>
       </c>
       <c r="V11">
-        <v>0.2818290965627461</v>
+        <v>0.2860285416571131</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -1206,46 +1206,46 @@
         <v>29</v>
       </c>
       <c r="I12">
-        <v>0.7000000000000455</v>
+        <v>18.75</v>
       </c>
       <c r="J12">
-        <v>1209.8</v>
+        <v>1297.7</v>
       </c>
       <c r="K12">
-        <v>0.7321475</v>
+        <v>93.36399777777775</v>
       </c>
       <c r="L12">
-        <v>4.0524725</v>
+        <v>236.47190638888893</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.7499136111111111</v>
       </c>
       <c r="N12">
-        <v>3.774012439233629</v>
+        <v>10.248092057046346</v>
       </c>
       <c r="O12">
-        <v>7.975009732094041</v>
+        <v>19.388185992703487</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>25.13116713352007</v>
       </c>
       <c r="Q12">
-        <v>4.784619999999999</v>
+        <v>330.58581527777784</v>
       </c>
       <c r="R12">
-        <v>15.786903875670003</v>
+        <v>1090.7713650091919</v>
       </c>
       <c r="S12">
-        <v>0.9520000000000001</v>
+        <v>0.20800000000000002</v>
       </c>
       <c r="T12">
-        <v>6.81341710172441</v>
+        <v>15.493474170104363</v>
       </c>
       <c r="U12">
-        <v>22.4809411927738</v>
+        <v>51.12088053463257</v>
       </c>
       <c r="V12">
-        <v>0.2480818421729807</v>
+        <v>0.3459918551635875</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -1274,46 +1274,46 @@
         <v>29</v>
       </c>
       <c r="I13">
-        <v>0.7999999999999545</v>
+        <v>17.049999999999955</v>
       </c>
       <c r="J13">
-        <v>1204.2</v>
+        <v>1285</v>
       </c>
       <c r="K13">
-        <v>1.3471313888888892</v>
+        <v>49.020275555555564</v>
       </c>
       <c r="L13">
-        <v>4.327859444444444</v>
+        <v>171.1249558333333</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.5798097222222223</v>
       </c>
       <c r="N13">
-        <v>3.5065763397371086</v>
+        <v>6.616403682517787</v>
       </c>
       <c r="O13">
-        <v>9.993249374639216</v>
+        <v>16.87365295172886</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>29.913199472295513</v>
       </c>
       <c r="Q13">
-        <v>5.6749913888888885</v>
+        <v>221.72504277777784</v>
       </c>
       <c r="R13">
-        <v>18.724693612375464</v>
+        <v>731.5841043095583</v>
       </c>
       <c r="S13">
-        <v>0.9159999999999999</v>
+        <v>0.428</v>
       </c>
       <c r="T13">
-        <v>6.942360770458947</v>
+        <v>12.595245724951639</v>
       </c>
       <c r="U13">
-        <v>22.90639218024791</v>
+        <v>41.5581453804597</v>
       </c>
       <c r="V13">
-        <v>0.2620552925201514</v>
+        <v>0.30565065841301353</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -1487,46 +1487,46 @@
         <v>29</v>
       </c>
       <c r="I19">
-        <v>14.399999999999864</v>
+        <v>18.350000000000136</v>
       </c>
       <c r="J19">
-        <v>1291.3</v>
+        <v>1383.45</v>
       </c>
       <c r="K19">
-        <v>78.42030777777777</v>
+        <v>94.83102361111112</v>
       </c>
       <c r="L19">
-        <v>122.32720750000001</v>
+        <v>183.82474277777774</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.0984266666666667</v>
       </c>
       <c r="N19">
-        <v>10.149157339879878</v>
+        <v>10.753571261645444</v>
       </c>
       <c r="O19">
-        <v>17.83586584101476</v>
+        <v>19.354920152891875</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>24.31918411330049</v>
       </c>
       <c r="Q19">
-        <v>200.7475138888889</v>
+        <v>279.754191111111</v>
       </c>
       <c r="R19">
-        <v>662.3685277082858</v>
+        <v>923.051887900591</v>
       </c>
       <c r="S19">
-        <v>0.636</v>
+        <v>0.364</v>
       </c>
       <c r="T19">
-        <v>13.763464508720713</v>
+        <v>15.23613638928345</v>
       </c>
       <c r="U19">
-        <v>45.41269551090151</v>
+        <v>50.271791827609235</v>
       </c>
       <c r="V19">
-        <v>0.38372614987185977</v>
+        <v>0.3941620680058883</v>
       </c>
     </row>
   </sheetData>
